--- a/timetable1.xlsx
+++ b/timetable1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">LF3F4(PH111)-254/PC</t>
   </si>
   <si>
-    <t xml:space="preserve">LF5F6(PH111)-259/ADV, PF5F6(PH123)-259/ABC</t>
+    <t xml:space="preserve">LF5F6(PH111)-259/ADV</t>
   </si>
   <si>
     <t xml:space="preserve">TE3E4(REMEDIAL ENGLISH)- 259/RG</t>
@@ -902,7 +902,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
@@ -999,7 +999,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1017,7 +1017,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1029,15 +1029,71 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="11" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="8" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1045,63 +1101,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1121,7 +1121,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1141,25 +1145,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J65536"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.11363636363636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9431818181818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5965909090909"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6477272727273"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4261363636364"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5965909090909"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.9431818181818"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5965909090909"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8920454545455"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3352272727273"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.47159090909091"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2418,14 +2422,14 @@
       <c r="C73" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2450,14 +2454,14 @@
       <c r="C75" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
       <c r="J75" s="16"/>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3156,7 +3160,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
